--- a/AdminFolder/gantryValues.xlsx
+++ b/AdminFolder/gantryValues.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AA1351-36EE-4A73-9D82-47474E835181}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25086F2F-CB08-47EF-81EF-4757A0A20D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13308" yWindow="840" windowWidth="9732" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="27">
   <si>
     <t>Petal Coordinates</t>
   </si>
@@ -76,20 +73,44 @@
     <t>Camera</t>
   </si>
   <si>
-    <t>&lt;-- x, y, z offset of camera relative to gantry axis</t>
-  </si>
-  <si>
     <t>&lt;-- x, y, z location of camera calibration piece on gantry</t>
   </si>
   <si>
     <t>&lt;-- x, y, z offset of glue tip relative to gantry axis</t>
+  </si>
+  <si>
+    <t>Cognex</t>
+  </si>
+  <si>
+    <t>IP Address of Cognex camera</t>
+  </si>
+  <si>
+    <t>FTP Echo Port</t>
+  </si>
+  <si>
+    <t>micron-pixel ratio</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Angle of module vacuum jig (based on fiducials along straight edges)</t>
+  </si>
+  <si>
+    <t>Angle of pick-up tool holder (0 = along x-axis)</t>
+  </si>
+  <si>
+    <t>&lt;-- x, y, z offset of camera foal point relative to gantry axis</t>
+  </si>
+  <si>
+    <t>169.254.0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +174,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -168,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -275,11 +309,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -292,13 +341,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -321,6 +367,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,77 +682,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="9">
-        <v>13.240698258352388</v>
-      </c>
-      <c r="B2" s="10">
-        <v>-775.07782187512157</v>
-      </c>
-      <c r="C2" s="11">
-        <v>-95.675683192588394</v>
-      </c>
-      <c r="D2" s="9">
-        <v>599.67837825945412</v>
-      </c>
-      <c r="E2" s="10">
-        <v>-904.5635181006237</v>
-      </c>
-      <c r="F2" s="11">
-        <v>-95.831202937279741</v>
+      <c r="A2" s="7">
+        <v>135.01256250373427</v>
+      </c>
+      <c r="B2" s="8">
+        <v>-472.47416502897306</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-117.99902179781795</v>
+      </c>
+      <c r="D2" s="7">
+        <v>697.58364407234626</v>
+      </c>
+      <c r="E2" s="8">
+        <v>-684.20894059324564</v>
+      </c>
+      <c r="F2" s="9">
+        <v>-118.11576794995626</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="9">
-        <v>11.881495943988746</v>
-      </c>
-      <c r="B3" s="10">
-        <v>-774.95506256638248</v>
-      </c>
-      <c r="C3" s="11">
-        <v>-95.792898179397142</v>
-      </c>
-      <c r="D3" s="9">
-        <v>645.13754985514174</v>
-      </c>
-      <c r="E3" s="10">
-        <v>-631.28576488545866</v>
-      </c>
-      <c r="F3" s="11">
-        <v>-95.331200134268002</v>
+      <c r="A3" s="30">
+        <v>134.72479999999999</v>
+      </c>
+      <c r="B3" s="31">
+        <v>-472.17250000000001</v>
+      </c>
+      <c r="C3" s="32">
+        <v>-118.1695</v>
+      </c>
+      <c r="D3" s="30">
+        <v>697.29290000000003</v>
+      </c>
+      <c r="E3" s="31">
+        <v>-683.91089999999997</v>
+      </c>
+      <c r="F3" s="32">
+        <v>-118.2945</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="5"/>
@@ -680,26 +761,26 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="14">
-        <v>608.4629746506763</v>
-      </c>
-      <c r="B7" s="15">
-        <v>-473.26344622479365</v>
-      </c>
-      <c r="C7" s="16">
-        <v>-91.284650725034908</v>
+      <c r="A7" s="11">
+        <v>331.1785970177005</v>
+      </c>
+      <c r="B7" s="12">
+        <v>-163.38459412507964</v>
+      </c>
+      <c r="C7" s="13">
+        <v>-125.69947155705327</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -708,14 +789,14 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="17">
-        <v>704.12430803599284</v>
-      </c>
-      <c r="B8" s="18">
-        <v>-379.41416357232742</v>
-      </c>
-      <c r="C8" s="19">
-        <v>-91.380755657117206</v>
+      <c r="A8" s="14">
+        <v>424.37910161976987</v>
+      </c>
+      <c r="B8" s="15">
+        <v>-259.68240437088798</v>
+      </c>
+      <c r="C8" s="16">
+        <v>-125.76220018707147</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -745,42 +826,42 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="20">
+      <c r="A10" s="17">
         <v>47.641561729999999</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="18">
         <v>10.53302171</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="19">
         <v>73.960195290000001</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>0.72861867000000002</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>39.498795450000003</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <v>12.37083387</v>
       </c>
       <c r="G10" s="5"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="14">
-        <v>608.30864658637131</v>
-      </c>
-      <c r="B12" s="15">
-        <v>-454.54175728395916</v>
-      </c>
-      <c r="C12" s="16">
-        <v>-91.224909483643273</v>
+      <c r="A12" s="11">
+        <v>349.73234803098376</v>
+      </c>
+      <c r="B12" s="12">
+        <v>-163.28584862526347</v>
+      </c>
+      <c r="C12" s="13">
+        <v>-125.70052664458173</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -788,14 +869,14 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="17">
-        <v>721.18233365232538</v>
-      </c>
-      <c r="B13" s="18">
-        <v>-381.42609569217154</v>
-      </c>
-      <c r="C13" s="19">
-        <v>-91.226782349969156</v>
+      <c r="A13" s="14">
+        <v>421.81156685122534</v>
+      </c>
+      <c r="B13" s="15">
+        <v>-276.75612475715974</v>
+      </c>
+      <c r="C13" s="16">
+        <v>-125.92044210183069</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -823,40 +904,40 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="24">
+      <c r="A15" s="21">
         <v>149.64731244999999</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="19">
         <v>11.887559019999999</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="19">
         <v>69.275537869999994</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <v>3.6114707699999999</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>51.03696265</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="20">
         <v>12.39946477</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="14">
-        <v>607.95964769679119</v>
-      </c>
-      <c r="B17" s="15">
-        <v>-431.9307795961638</v>
-      </c>
-      <c r="C17" s="16">
-        <v>-91.4048006839474</v>
+      <c r="A17" s="11">
+        <v>372.64055456373745</v>
+      </c>
+      <c r="B17" s="12">
+        <v>-163.0311030069681</v>
+      </c>
+      <c r="C17" s="13">
+        <v>-125.70050830723588</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -864,14 +945,14 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17">
-        <v>733.66531793729155</v>
-      </c>
-      <c r="B18" s="18">
-        <v>-383.12818956173527</v>
-      </c>
-      <c r="C18" s="19">
-        <v>-91.280771652157327</v>
+      <c r="A18" s="14">
+        <v>420.48321579620892</v>
+      </c>
+      <c r="B18" s="15">
+        <v>-288.64668597143003</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-125.92044034930798</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -899,40 +980,40 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>224.91131371</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="19">
         <v>12.058864959999999</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="19">
         <v>68.759193909999993</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="19">
         <v>3.7540263899999999</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <v>62.6768444</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="22">
         <v>12.39946477</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="14">
-        <v>608.69364339607648</v>
-      </c>
-      <c r="B22" s="15">
-        <v>-487.68980169467858</v>
-      </c>
-      <c r="C22" s="16">
-        <v>-91.154996053465169</v>
+      <c r="A22" s="11">
+        <v>316.7025513776839</v>
+      </c>
+      <c r="B22" s="12">
+        <v>-163.77279055228379</v>
+      </c>
+      <c r="C22" s="13">
+        <v>-125.20782661298237</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -940,14 +1021,14 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17">
-        <v>682.11929412347877</v>
-      </c>
-      <c r="B23" s="18">
-        <v>-374.26818434715193</v>
-      </c>
-      <c r="C23" s="19">
-        <v>-91.410662544331601</v>
+      <c r="A23" s="14">
+        <v>429.79473387351277</v>
+      </c>
+      <c r="B23" s="15">
+        <v>-237.85387617089089</v>
+      </c>
+      <c r="C23" s="16">
+        <v>-125.76557538422082</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -975,59 +1056,59 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1">
-      <c r="A25" s="20">
+      <c r="A25" s="17">
         <v>315.62527798000002</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="18">
         <v>5.7736021800000001</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="18">
         <v>68.949133430000003</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="18">
         <v>2.1488824100000001</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="18">
         <v>29.751270210000001</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="20">
         <v>9.5119270199999999</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1">
-      <c r="A26" s="26">
+      <c r="A26" s="23">
         <v>315.32792473000001</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="24">
         <v>18.54269618</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="24">
         <v>68.949133430000003</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="24">
         <v>2.1488824100000001</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="24">
         <v>29.751270210000001</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="25">
         <v>15.28700252</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="14">
-        <v>608.45662605933478</v>
-      </c>
-      <c r="B28" s="15">
-        <v>-480.32669694128691</v>
-      </c>
-      <c r="C28" s="16">
-        <v>-91.634938025465644</v>
+      <c r="A28" s="11">
+        <v>330.92325961367226</v>
+      </c>
+      <c r="B28" s="12">
+        <v>-163.22140074014109</v>
+      </c>
+      <c r="C28" s="13">
+        <v>-125.70051633349698</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1035,14 +1116,14 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17">
-        <v>693.26533611517607</v>
-      </c>
-      <c r="B29" s="18">
-        <v>-374.89914051481514</v>
-      </c>
-      <c r="C29" s="19">
-        <v>-91.480790199813782</v>
+      <c r="A29" s="14">
+        <v>424.13540315175027</v>
+      </c>
+      <c r="B29" s="15">
+        <v>-259.51888208562389</v>
+      </c>
+      <c r="C29" s="16">
+        <v>-125.92043288684036</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1070,296 +1151,484 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1">
-      <c r="A31" s="20">
+      <c r="A31" s="17">
         <v>431.51589092</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="18">
         <v>6.7806666299999998</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="18">
         <v>67.588955010000006</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="18">
         <v>2.8290328100000002</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="18">
         <v>35.691921649999998</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="20">
         <v>9.5130801599999995</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1">
-      <c r="A32" s="20">
+      <c r="A32" s="17">
         <v>431.26229218999998</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="18">
         <v>17.664711369999999</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="18">
         <v>67.588955010000006</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="18">
         <v>2.8290328100000002</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="18">
         <v>35.691921649999998</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="20">
         <v>15.285849389999999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:9" s="2" customFormat="1">
+      <c r="A33" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="14">
-        <v>608.58114539850612</v>
-      </c>
-      <c r="B34" s="15">
-        <v>-475.05898227857352</v>
-      </c>
-      <c r="C34" s="16">
-        <v>-91.511611356857472</v>
+    <row r="34" spans="1:9">
+      <c r="A34" s="11">
+        <v>333.01763831703278</v>
+      </c>
+      <c r="B34" s="12">
+        <v>-163.42030689586937</v>
+      </c>
+      <c r="C34" s="13">
+        <v>-125.64336224436757</v>
       </c>
       <c r="D34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="17">
-        <v>705.01424973210123</v>
-      </c>
-      <c r="B35" s="18">
-        <v>-380.68567983225603</v>
-      </c>
-      <c r="C35" s="19">
-        <v>-91.453299228583589</v>
-      </c>
-      <c r="D35" s="5"/>
+    <row r="35" spans="1:9">
+      <c r="A35" s="47">
+        <v>427.98520516875141</v>
+      </c>
+      <c r="B35" s="48">
+        <v>-259.15199226955241</v>
+      </c>
+      <c r="C35" s="49">
+        <v>-125.69212784684713</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:9" s="2" customFormat="1">
+      <c r="A36" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="20">
+    <row r="37" spans="1:9">
+      <c r="A37" s="52">
         <v>537.69707805999997</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="53">
         <v>7.3201293200000004</v>
       </c>
-      <c r="C37" s="22">
-        <v>67.208081660000005</v>
-      </c>
-      <c r="D37" s="22">
-        <v>2.8418019299999999</v>
-      </c>
-      <c r="E37" s="22">
+      <c r="C37" s="53">
+        <v>67.146298389999998</v>
+      </c>
+      <c r="D37" s="53">
+        <v>2.8912271</v>
+      </c>
+      <c r="E37" s="53">
         <v>41.723140530000002</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="54">
         <v>9.5128380799999999</v>
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="20">
+    <row r="38" spans="1:9">
+      <c r="A38" s="52">
         <v>537.46693550999998</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="53">
         <v>17.194861660000001</v>
       </c>
-      <c r="C38" s="22">
-        <v>67.208489069999999</v>
-      </c>
-      <c r="D38" s="22">
-        <v>2.84211356</v>
-      </c>
-      <c r="E38" s="22">
+      <c r="C38" s="53">
+        <v>67.146298389999998</v>
+      </c>
+      <c r="D38" s="53">
+        <v>2.8912271</v>
+      </c>
+      <c r="E38" s="53">
         <v>41.723140530000002</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="54">
         <v>15.28609146</v>
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1">
-      <c r="A40" s="13" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1">
+      <c r="A40" s="40">
+        <v>0</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" s="2" customFormat="1">
-      <c r="A41" s="13" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1">
+      <c r="A43" s="34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="9">
-        <v>524.88793099999998</v>
-      </c>
-      <c r="B42" s="10">
-        <v>-498.74459999999999</v>
-      </c>
-      <c r="C42" s="11">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1">
-      <c r="A43" s="13" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="30">
+        <v>749.31290000000001</v>
+      </c>
+      <c r="B44" s="31">
+        <v>-38.602200000000003</v>
+      </c>
+      <c r="C44" s="32">
+        <v>-136.91</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1">
+      <c r="A45" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="9">
-        <v>268.88793099999998</v>
-      </c>
-      <c r="B44" s="10">
-        <v>-498.74459999999999</v>
-      </c>
-      <c r="C44" s="11">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="2" customFormat="1">
-      <c r="A45" s="13" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="30">
+        <v>750.10680000000002</v>
+      </c>
+      <c r="B46" s="31">
+        <v>-133.54400000000001</v>
+      </c>
+      <c r="C46" s="32">
+        <v>-136.94999999999999</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1">
+      <c r="A47" s="34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="9">
-        <v>452.88793099999998</v>
-      </c>
-      <c r="B46" s="10">
-        <v>-498.74459999999999</v>
-      </c>
-      <c r="C46" s="11">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="2" customFormat="1">
-      <c r="A47" s="13" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="30">
+        <v>750.10680000000002</v>
+      </c>
+      <c r="B48" s="31">
+        <v>-233.9538</v>
+      </c>
+      <c r="C48" s="32">
+        <v>-136.94300000000001</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="1:9" s="2" customFormat="1">
+      <c r="A49" s="34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="9">
-        <v>524.88793099999998</v>
-      </c>
-      <c r="B48" s="10">
-        <v>-498.74459999999999</v>
-      </c>
-      <c r="C48" s="11">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="2" customFormat="1">
-      <c r="A49" s="13" t="s">
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="30">
+        <v>749.31290000000001</v>
+      </c>
+      <c r="B50" s="31">
+        <v>-38.602200000000003</v>
+      </c>
+      <c r="C50" s="32">
+        <v>-136.91</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:9" s="2" customFormat="1">
+      <c r="A51" s="34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="9">
-        <v>524.88793099999998</v>
-      </c>
-      <c r="B50" s="10">
-        <v>-498.74459999999999</v>
-      </c>
-      <c r="C50" s="11">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="2" customFormat="1">
-      <c r="A51" s="13" t="s">
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="30">
+        <v>749.31290000000001</v>
+      </c>
+      <c r="B52" s="31">
+        <v>-38.602200000000003</v>
+      </c>
+      <c r="C52" s="32">
+        <v>-136.91</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="9">
-        <v>524.88793099999998</v>
-      </c>
-      <c r="B52" s="10">
-        <v>-498.74459999999999</v>
-      </c>
-      <c r="C52" s="11">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="2" customFormat="1">
-      <c r="A54" s="13" t="s">
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" s="2" customFormat="1">
+      <c r="A54" s="30">
+        <v>749.31290000000001</v>
+      </c>
+      <c r="B54" s="31">
+        <v>-38.602200000000003</v>
+      </c>
+      <c r="C54" s="32">
+        <v>-136.91</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="40">
+        <v>0</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="9">
-        <v>117.2707435900612</v>
-      </c>
-      <c r="B55" s="10">
-        <v>-0.35649196947931044</v>
-      </c>
-      <c r="C55" s="11">
-        <v>-34</v>
-      </c>
-      <c r="D55" s="12" t="s">
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="38">
+        <v>117.2707436</v>
+      </c>
+      <c r="B59" s="38">
+        <v>-0.35649196900000002</v>
+      </c>
+      <c r="C59" s="38">
+        <v>-42.5</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="41"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="39">
+        <v>689.32</v>
+      </c>
+      <c r="B60" s="36">
+        <v>-449.74</v>
+      </c>
+      <c r="C60" s="37">
+        <v>-91.39</v>
+      </c>
+      <c r="D60" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="9">
-        <v>689.32</v>
-      </c>
-      <c r="B56" s="10">
-        <v>-449.74</v>
-      </c>
-      <c r="C56" s="11">
-        <v>-91.39</v>
-      </c>
-      <c r="D56" s="12" t="s">
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="41"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="35">
+        <v>115.7561</v>
+      </c>
+      <c r="B61" s="36">
+        <v>1.2652000000000001</v>
+      </c>
+      <c r="C61" s="37">
+        <v>-20</v>
+      </c>
+      <c r="D61" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="9">
-        <v>115.7561</v>
-      </c>
-      <c r="B57" s="10">
-        <v>1.2652000000000001</v>
-      </c>
-      <c r="C57" s="11">
-        <v>-20</v>
-      </c>
-      <c r="D57" s="12" t="s">
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="41"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="40">
+        <v>55108</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="40">
+        <v>0.21976999999999999</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AdminFolder/gantryValues.xlsx
+++ b/AdminFolder/gantryValues.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25086F2F-CB08-47EF-81EF-4757A0A20D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Petal Coordinates</t>
   </si>
@@ -73,6 +72,9 @@
     <t>Camera</t>
   </si>
   <si>
+    <t>&lt;-- x, y, z offset of camera relative to gantry axis</t>
+  </si>
+  <si>
     <t>&lt;-- x, y, z location of camera calibration piece on gantry</t>
   </si>
   <si>
@@ -82,6 +84,9 @@
     <t>Cognex</t>
   </si>
   <si>
+    <t>169.254.41.3</t>
+  </si>
+  <si>
     <t>IP Address of Cognex camera</t>
   </si>
   <si>
@@ -98,19 +103,13 @@
   </si>
   <si>
     <t>Angle of pick-up tool holder (0 = along x-axis)</t>
-  </si>
-  <si>
-    <t>&lt;-- x, y, z offset of camera foal point relative to gantry axis</t>
-  </si>
-  <si>
-    <t>169.254.0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +174,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -328,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -383,25 +389,20 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,50 +675,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>135.01256250373427</v>
+        <v>135.01820009346088</v>
       </c>
       <c r="B2" s="8">
-        <v>-472.47416502897306</v>
+        <v>-472.47263505383114</v>
       </c>
       <c r="C2" s="9">
-        <v>-117.99902179781795</v>
+        <v>-117.99902208507902</v>
       </c>
       <c r="D2" s="7">
-        <v>697.58364407234626</v>
+        <v>697.58478850862195</v>
       </c>
       <c r="E2" s="8">
-        <v>-684.20894059324564</v>
+        <v>-684.22727617799887</v>
       </c>
       <c r="F2" s="9">
-        <v>-118.11576794995626</v>
+        <v>-118.11576838924343</v>
       </c>
       <c r="G2" s="5"/>
       <c r="I2" s="6"/>
@@ -727,7 +728,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>134.72479999999999</v>
       </c>
@@ -754,25 +755,25 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1">
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>331.1785970177005</v>
       </c>
@@ -788,7 +789,7 @@
       <c r="G7" s="5"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>424.37910161976987</v>
       </c>
@@ -804,7 +805,7 @@
       <c r="G8" s="5"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1">
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -825,7 +826,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>47.641561729999999</v>
       </c>
@@ -847,13 +848,13 @@
       <c r="G10" s="5"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>349.73234803098376</v>
       </c>
@@ -868,7 +869,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>421.81156685122534</v>
       </c>
@@ -883,7 +884,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1">
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -903,7 +904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>149.64731244999999</v>
       </c>
@@ -924,12 +925,12 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:14" s="2" customFormat="1">
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>372.64055456373745</v>
       </c>
@@ -944,7 +945,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>420.48321579620892</v>
       </c>
@@ -959,7 +960,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1">
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -979,7 +980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>224.91131371</v>
       </c>
@@ -1000,42 +1001,42 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1">
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>316.7025513776839</v>
+        <v>316.67161377698926</v>
       </c>
       <c r="B22" s="12">
-        <v>-163.77279055228379</v>
+        <v>-163.82848220086203</v>
       </c>
       <c r="C22" s="13">
-        <v>-125.20782661298237</v>
+        <v>-125.20785120469837</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>429.79473387351277</v>
+        <v>429.81037436784902</v>
       </c>
       <c r="B23" s="15">
-        <v>-237.85387617089089</v>
+        <v>-237.84213693251039</v>
       </c>
       <c r="C23" s="16">
-        <v>-125.76557538422082</v>
+        <v>-125.7655754805098</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1">
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>315.62527798000002</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>9.5119270199999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="5" customFormat="1">
+    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>315.32792473000001</v>
       </c>
@@ -1095,12 +1096,12 @@
         <v>15.28700252</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1">
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>330.92325961367226</v>
       </c>
@@ -1115,7 +1116,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>424.13540315175027</v>
       </c>
@@ -1130,7 +1131,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1">
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1">
+    <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>431.51589092</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>9.5130801599999995</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="5" customFormat="1">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>431.26229218999998</v>
       </c>
@@ -1190,12 +1191,12 @@
         <v>15.285849389999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1">
+    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>333.01763831703278</v>
       </c>
@@ -1208,89 +1209,87 @@
       <c r="D34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="47">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>427.98520516875141</v>
       </c>
-      <c r="B35" s="48">
+      <c r="B35" s="15">
         <v>-259.15199226955241</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="16">
         <v>-125.69212784684713</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
+      <c r="D35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:9" s="2" customFormat="1">
-      <c r="A36" s="51" t="s">
+    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="51" t="s">
+      <c r="F36" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="52">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="42">
         <v>537.69707805999997</v>
       </c>
-      <c r="B37" s="53">
+      <c r="B37" s="43">
         <v>7.3201293200000004</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="43">
         <v>67.146298389999998</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="43">
         <v>2.8912271</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="43">
         <v>41.723140530000002</v>
       </c>
-      <c r="F37" s="54">
+      <c r="F37" s="44">
         <v>9.5128380799999999</v>
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="52">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="42">
         <v>537.46693550999998</v>
       </c>
-      <c r="B38" s="53">
+      <c r="B38" s="43">
         <v>17.194861660000001</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="43">
         <v>67.146298389999998</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="43">
         <v>2.8912271</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="43">
         <v>41.723140530000002</v>
       </c>
-      <c r="F38" s="54">
+      <c r="F38" s="44">
         <v>15.28609146</v>
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B39" s="26"/>
-      <c r="C39" s="42"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
@@ -1298,22 +1297,22 @@
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
     </row>
-    <row r="40" spans="1:9" s="2" customFormat="1">
+    <row r="40" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="45"/>
+        <v>25</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
       <c r="G40" s="5"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1">
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1324,7 +1323,7 @@
       <c r="H41"/>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
         <v>8</v>
       </c>
@@ -1337,7 +1336,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" s="2" customFormat="1">
+    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1347,7 @@
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>749.31290000000001</v>
       </c>
@@ -1363,7 +1362,7 @@
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="1:9" s="2" customFormat="1">
+    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1373,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>750.10680000000002</v>
       </c>
@@ -1389,7 +1388,7 @@
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
     </row>
-    <row r="47" spans="1:9" s="2" customFormat="1">
+    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1399,7 @@
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>750.10680000000002</v>
       </c>
@@ -1415,7 +1414,7 @@
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
     </row>
-    <row r="49" spans="1:9" s="2" customFormat="1">
+    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>6</v>
       </c>
@@ -1426,7 +1425,7 @@
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>749.31290000000001</v>
       </c>
@@ -1441,7 +1440,7 @@
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="1:9" s="2" customFormat="1">
+    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>7</v>
       </c>
@@ -1452,7 +1451,7 @@
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>749.31290000000001</v>
       </c>
@@ -1467,7 +1466,7 @@
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +1479,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" s="2" customFormat="1">
+    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>749.31290000000001</v>
       </c>
@@ -1497,9 +1496,9 @@
       <c r="H54"/>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -1510,22 +1509,22 @@
       <c r="H55" s="26"/>
       <c r="I55" s="26"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="46"/>
+        <v>26</v>
+      </c>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="49"/>
       <c r="G56" s="26"/>
       <c r="H56" s="26"/>
       <c r="I56" s="26"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
         <v>15</v>
       </c>
@@ -1538,25 +1537,26 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
-        <v>117.2707436</v>
+        <f>-0.549865</f>
+        <v>-0.54986500000000005</v>
       </c>
       <c r="B59" s="38">
-        <v>-0.35649196900000002</v>
+        <f>-101.798218</f>
+        <v>-101.79821800000001</v>
       </c>
       <c r="C59" s="38">
-        <v>-42.5</v>
+        <v>-23.54</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
-      <c r="H59" s="41"/>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <v>689.32</v>
       </c>
@@ -1567,14 +1567,13 @@
         <v>-91.39</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
-      <c r="H60" s="41"/>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="35">
         <v>115.7561</v>
       </c>
@@ -1585,47 +1584,46 @@
         <v>-20</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
-      <c r="H61" s="41"/>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C64" s="41"/>
       <c r="D64" s="41"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>55108</v>
+        <v>50290</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C65" s="41"/>
       <c r="D65" s="41"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>0.21976999999999999</v>
+        <v>0.36502200000000001</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C66" s="41"/>
       <c r="D66" s="41"/>
